--- a/biology/Botanique/Alfred_d'Anglemont_de_Tassigny/Alfred_d'Anglemont_de_Tassigny.xlsx
+++ b/biology/Botanique/Alfred_d'Anglemont_de_Tassigny/Alfred_d'Anglemont_de_Tassigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alfred_d%27Anglemont_de_Tassigny</t>
+          <t>Alfred_d'Anglemont_de_Tassigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred d'Anglemont de Tassigny, né le 6 juin 1832 au Château de Reméhan à Pouru-Saint-Remy et mort le 29 octobre 1899 à Pouru-Saint-Remy, est un négociant en vins de Champagne et brasseur à Reims.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alfred_d%27Anglemont_de_Tassigny</t>
+          <t>Alfred_d'Anglemont_de_Tassigny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Alfred d'Anglemont de Tassigny est le fils de Jean Maurice d'Anglemont de Tassigny (1784-1860), maire de Pouru-Saint-Rémy, ancien officier de cavalerie, propriétaire terrien, et membre du Conseil de l'arrondissement de Sedan et de Françoise Gabrielle de Nonancourt (1805-1881). Henry Alfred d'Anglemont de Tassigny est négociant, brasseur. La famille d'Anglemont de Tassigny possédait la brasserie Jeanne d’Arc située 7 boulevard de la République (devenu boulevard Foch) à Reims. Il est également  fondateur de la Compagnie de sauveteurs de Reims dans la Cie des sapeurs pompiers de Reims dont il devient le capitaine-commandant[1]. Il décède le 29 octobre 1899 à Pouru-Saint-Remy.
-Famille
-Il épouse, le 24 mai 1859 à Reims Pauline Delbeck (1840-1934) avec qui il aura douze enfants[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Alfred d'Anglemont de Tassigny est le fils de Jean Maurice d'Anglemont de Tassigny (1784-1860), maire de Pouru-Saint-Rémy, ancien officier de cavalerie, propriétaire terrien, et membre du Conseil de l'arrondissement de Sedan et de Françoise Gabrielle de Nonancourt (1805-1881). Henry Alfred d'Anglemont de Tassigny est négociant, brasseur. La famille d'Anglemont de Tassigny possédait la brasserie Jeanne d’Arc située 7 boulevard de la République (devenu boulevard Foch) à Reims. Il est également  fondateur de la Compagnie de sauveteurs de Reims dans la Cie des sapeurs pompiers de Reims dont il devient le capitaine-commandant. Il décède le 29 octobre 1899 à Pouru-Saint-Remy.
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alfred_d%27Anglemont_de_Tassigny</t>
+          <t>Alfred_d'Anglemont_de_Tassigny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il épouse, le 24 mai 1859 à Reims Pauline Delbeck (1840-1934) avec qui il aura douze enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alfred_d'Anglemont_de_Tassigny</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alfred_d%27Anglemont_de_Tassigny</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 26 novembre 1871[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur par décret du 26 novembre 1871.</t>
         </is>
       </c>
     </row>
